--- a/trunk/DOCS/Test Cases/TC05- Edit Incident.xlsx
+++ b/trunk/DOCS/Test Cases/TC05- Edit Incident.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="17790" windowHeight="4845" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="17790" windowHeight="4845"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Need list (need unit)</t>
   </si>
   <si>
-    <t>TC01.01</t>
-  </si>
-  <si>
     <t>Create crisis with correct Need list</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Successfully run</t>
   </si>
   <si>
-    <t>TC01.02</t>
-  </si>
-  <si>
     <t>Create crisis with name contain special character</t>
   </si>
   <si>
@@ -181,6 +175,12 @@
   </si>
   <si>
     <t>Testcase ID: First two numbers is the use case number, second two numbers are remaining test case number. Input Explanation: O1 means option 1 will be selected for this case.</t>
+  </si>
+  <si>
+    <t>TC05.01</t>
+  </si>
+  <si>
+    <t>TC05.02</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1030,7 +1030,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1081,72 +1081,72 @@
     </row>
     <row r="4" spans="1:11" ht="33.75" customHeight="1" thickTop="1">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>48</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24.75" customHeight="1"/>
